--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R77fb28b6231b4ef4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc73530ac520344c1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc73530ac520344c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R6a7c2c0833cc4e65"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R6a7c2c0833cc4e65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Re973199d5278423b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Re973199d5278423b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R0fb2f5fa45824217"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,7 +27,7 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R0fb2f5fa45824217"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Ra6fa5e365d2f4a65"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Ra6fa5e365d2f4a65"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R813f5895f03e4cee"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R813f5895f03e4cee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R6d4fee5d29dd4f59"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R6d4fee5d29dd4f59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Re5c0ec5e7e9f44a9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Re5c0ec5e7e9f44a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R7aeb3fc45c0b45db"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R7aeb3fc45c0b45db"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R96889af5473146aa"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R96889af5473146aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R9006a1f73b544c3d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R9006a1f73b544c3d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rea104a7ea4504451"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rea104a7ea4504451"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Ra8a7263e89f24aae"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Ra8a7263e89f24aae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R980e8aabcbfd46fe"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R980e8aabcbfd46fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R7658fc911dbc428d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R7658fc911dbc428d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R663760252b594d8d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R663760252b594d8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rbc1b9cbd12a24049"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rbc1b9cbd12a24049"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R100aa4faea8a415f"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R100aa4faea8a415f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4cf8bb8548e3475e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4cf8bb8548e3475e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4985f28a7ff2429e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4985f28a7ff2429e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Ra57af654b35b4b85"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Ra57af654b35b4b85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R394a20143da84508"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R394a20143da84508"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rbfc9d1f474f14e1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rbfc9d1f474f14e1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R18b1573f4b984242"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R18b1573f4b984242"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rea606e55758a42b6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rea606e55758a42b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5bf71e17bd414ed1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5bf71e17bd414ed1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R53a74a7239664567"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R53a74a7239664567"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rfb87dc076a5041af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rfb87dc076a5041af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R1519921c8f5943bc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R1519921c8f5943bc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Raafd4cf6d15c4ff5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Raafd4cf6d15c4ff5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R0c25efe2f84f4c13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R0c25efe2f84f4c13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5773f622300f4c06"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5773f622300f4c06"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4adf75f238d04a4c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4adf75f238d04a4c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rf1405e919d0b45ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rf1405e919d0b45ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R1e298a61be424f4d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R1e298a61be424f4d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R369d8f43b92240c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R369d8f43b92240c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Re23f7891246041d0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Re23f7891246041d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Reddf2737a07e4c39"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Reddf2737a07e4c39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rba9aebe05091437c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rba9aebe05091437c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4984cb95e38a4ab6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R4984cb95e38a4ab6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R6fd850f9d4f040ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R6fd850f9d4f040ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rb7304127e0e44b42"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rb7304127e0e44b42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rffe2fd88bffb41e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rffe2fd88bffb41e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5620a81fe67648a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/03_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5620a81fe67648a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R0ff490451baa4094"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
